--- a/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="百度搜索页面">ElementsMap!$D$2:$D$4</definedName>
     <definedName name="关键字">ElementsMap!$A$2:$A$8</definedName>
-    <definedName name="通用">ElementsMap!$B$2:$B$10</definedName>
+    <definedName name="通用">ElementsMap!$B$2:$B$13</definedName>
     <definedName name="页面">ElementsMap!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,15 +145,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*链接#</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页导航栏#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索链接</t>
+  </si>
+  <si>
+    <t>百度搜索链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新窗口=百度搜索窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下\，你就知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>自动化测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,85 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例片段</t>
-  </si>
-  <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页导航栏#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索链接</t>
-  </si>
-  <si>
-    <t>百度搜索链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新窗口=百度搜索窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下\，你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BAIDU_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +280,38 @@
   </si>
   <si>
     <t>keywords=搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +800,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,10 +867,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -862,14 +882,14 @@
         <v>14</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -884,16 +904,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="3"/>
@@ -904,10 +924,10 @@
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2">
@@ -917,17 +937,17 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -945,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -966,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -975,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -986,13 +1006,13 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1001,13 +1021,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1027,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1048,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -1057,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1068,26 +1088,26 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1107,14 +1127,14 @@
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1139,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1359,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1396,7 +1416,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1408,7 +1428,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1416,11 +1436,11 @@
         <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1428,7 +1448,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1438,30 +1458,70 @@
         <v>25</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="百度搜索页面">ElementsMap!$D$2:$D$4</definedName>
     <definedName name="关键字">ElementsMap!$A$2:$A$8</definedName>
-    <definedName name="通用">ElementsMap!$B$2:$B$13</definedName>
+    <definedName name="通用">ElementsMap!$B$2:$B$10</definedName>
     <definedName name="页面">ElementsMap!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,45 +59,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面标题</t>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开</t>
-  </si>
-  <si>
-    <t>元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>页面标题</t>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例片段</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页导航栏#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索链接</t>
+  </si>
+  <si>
+    <t>百度搜索链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新窗口=百度搜索窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下\，你就知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+  </si>
+  <si>
+    <t>百度搜索页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;keywords&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：&lt;keywords&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>SNIPPET_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;keywords&gt;_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*link#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,213 +316,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOME_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例片段</t>
-  </si>
-  <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页导航栏#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索链接</t>
-  </si>
-  <si>
-    <t>百度搜索链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新窗口=百度搜索窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下\，你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-  </si>
-  <si>
-    <t>百度搜索页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAIDU_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;keywords&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：&lt;keywords&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAIDU_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>SNIPPET_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;keywords&gt;_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title=text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试_百度搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;title&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索：搜狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords=搜狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*link#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#</t>
+    <t>搜索：知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link#注册机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*知乎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,24 +828,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="45.625" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="9.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
@@ -826,19 +860,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>2</v>
@@ -847,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -864,32 +898,32 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -904,16 +938,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="3"/>
@@ -924,30 +958,30 @@
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -962,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -986,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1006,28 +1040,28 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1044,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1068,16 +1102,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1088,26 +1122,26 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1124,17 +1158,17 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1150,16 +1184,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1168,15 +1202,29 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -1184,15 +1232,23 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -1204,11 +1260,21 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
@@ -1220,10 +1286,18 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1232,14 +1306,22 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1256,7 +1338,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
@@ -1272,7 +1354,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -1296,15 +1378,15 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
@@ -1312,15 +1394,15 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
@@ -1360,16 +1442,48 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G18:G24 G2:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G20:G26 G2:G17">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
       <formula1>页面</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
       <formula1>关键字</formula1>
     </dataValidation>
   </dataValidations>
@@ -1382,103 +1496,103 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1486,7 +1600,7 @@
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1494,7 +1608,7 @@
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1502,7 +1616,7 @@
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1510,7 +1624,7 @@
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1518,7 +1632,7 @@
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>

--- a/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/sample/sweetest_sample/testcase/Baidu-TestCase.xlsx
@@ -13,15 +13,16 @@
   <definedNames>
     <definedName name="百度搜索页面">ElementsMap!$D$2:$D$4</definedName>
     <definedName name="关键字">ElementsMap!$A$2:$A$8</definedName>
-    <definedName name="通用">ElementsMap!$B$2:$B$10</definedName>
-    <definedName name="页面">ElementsMap!$B$1:$D$1</definedName>
+    <definedName name="通用">ElementsMap!$B$2:$B$16</definedName>
+    <definedName name="雪球行情中心">ElementsMap!$E$2</definedName>
+    <definedName name="页面">ElementsMap!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,9 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面标题</t>
-  </si>
-  <si>
     <t>通用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,14 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +335,88 @@
   </si>
   <si>
     <t>*知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面title</t>
+  </si>
+  <si>
+    <t>页面title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAIDU_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords=雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+  </si>
+  <si>
+    <t>雪球行情中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#2#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股预告表格#2#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*&lt;name&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -466,11 +538,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -515,6 +598,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,12 +914,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,9 +929,9 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
     <col min="11" max="11" width="9.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
@@ -860,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -881,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -898,32 +984,32 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -938,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="3"/>
@@ -958,30 +1044,30 @@
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -996,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1020,16 +1106,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1040,28 +1126,28 @@
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1078,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1102,16 +1188,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1122,26 +1208,26 @@
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1158,17 +1244,17 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -1184,16 +1270,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1204,26 +1290,26 @@
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1240,13 +1326,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
@@ -1261,19 +1347,19 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1287,16 +1373,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1311,16 +1397,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1331,14 +1417,28 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
@@ -1350,27 +1450,47 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
@@ -1382,12 +1502,22 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="3"/>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1398,27 +1528,47 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="3"/>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
@@ -1426,15 +1576,15 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -1474,16 +1624,48 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
+    <row r="27" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G20:G26 G2:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G28">
       <formula1>INDIRECT(F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F28">
       <formula1>页面</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
       <formula1>关键字</formula1>
     </dataValidation>
   </dataValidations>
@@ -1493,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,137 +1687,168 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>43</v>
+      <c r="B12" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>37</v>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
